--- a/Ing_economica/ej_cap1/Ejemplos Cap 3VIRTUALUM.xlsx
+++ b/Ing_economica/ej_cap1/Ejemplos Cap 3VIRTUALUM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Empresas Agrícolas\Desktop\ME\Unidad USB\PRESENTACIONES FINANCIERA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\ej_cap1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6865F57-9600-4D49-88E2-C93EACA3C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB57D4-C73C-40F6-AE24-C88D520196CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="0" windowWidth="10530" windowHeight="10785" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Año</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,13 +62,28 @@
     <t>P/G</t>
   </si>
   <si>
-    <t>PT= -$100(P/A,i,8)-$50(P/G,i,5)(P/F,i,3)</t>
-  </si>
-  <si>
     <t>Series Diferidas</t>
   </si>
   <si>
     <t>Si i=10%</t>
+  </si>
+  <si>
+    <t>cuanto meto en el banco a una tasa para que me cubra el costo del software durante 8 años</t>
+  </si>
+  <si>
+    <t>Cuanto tengo que  pagar si prefiero desde el inicio ir pagando una cuota fija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradiente aritmetico, su inicio esta 2 años antes de donde esta presente. En este caso se presenta en el año </t>
+  </si>
+  <si>
+    <t>por lo que inicia en el año 3</t>
+  </si>
+  <si>
+    <t>PT= -$100(P/A,i,8) - $50(P/G,i,5) (P/F,i,3)</t>
+  </si>
+  <si>
+    <t>Gradiente geometrico</t>
   </si>
 </sst>
 </file>
@@ -77,9 +92,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;Q&quot;#,##0.00;[Red]\-&quot;Q&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -135,11 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -152,14 +167,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -499,24 +513,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B46C4-AC9E-4220-B0C6-67085CACDDCC}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.1</v>
       </c>
@@ -527,7 +542,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -535,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -543,15 +558,18 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -559,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -567,7 +585,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -575,7 +593,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -583,7 +601,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -591,7 +609,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -599,7 +617,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -607,29 +625,32 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="13">
+        <f>NPV(C3,B6:B13)+B5</f>
+        <v>-6981.6870987487946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
@@ -637,7 +658,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -645,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -653,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -662,10 +683,10 @@
       </c>
       <c r="C24" s="3">
         <f>B33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -674,10 +695,10 @@
       </c>
       <c r="C25" s="3">
         <f>C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -686,10 +707,10 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ref="C26:C31" si="0">C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -698,10 +719,10 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -710,10 +731,10 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -722,10 +743,13 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -734,10 +758,10 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -746,32 +770,40 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-5043.4934493145747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="13">
+        <f>NPV(C21,B24:B31)+B23</f>
+        <v>-21906.87222549734</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
+        <f>-PMT(C21,A31,B32)</f>
+        <v>-5043.4934493145747</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.3</v>
       </c>
@@ -779,7 +811,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -790,7 +822,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -801,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -812,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -823,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -834,7 +866,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -845,7 +877,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -856,7 +888,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -869,7 +901,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -880,7 +912,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -891,7 +923,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -902,7 +934,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -913,7 +945,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -924,7 +956,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -935,7 +967,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -946,7 +978,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>14</v>
       </c>
@@ -957,7 +989,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -968,7 +1000,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>16</v>
       </c>
@@ -981,7 +1013,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>17</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>18</v>
       </c>
@@ -1007,7 +1039,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>19</v>
       </c>
@@ -1019,8 +1051,12 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E60" s="3">
+        <f>SUM(B42:B61)</f>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20</v>
       </c>
@@ -1032,8 +1068,12 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" s="3">
+        <f>SUM(C44:C63)</f>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>21</v>
       </c>
@@ -1045,7 +1085,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>22</v>
       </c>
@@ -1057,33 +1097,39 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="13">
+        <f>NPV(C40,B42:B61)+B41</f>
+        <v>124076.84847714327</v>
+      </c>
+      <c r="C64" s="13">
+        <f>NPV(C40,C42:C63)+C41</f>
+        <v>93621.922572189636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3.5</v>
       </c>
@@ -1091,21 +1137,21 @@
       <c r="C69" s="10"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>0.1</v>
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1114,8 +1160,11 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1124,8 +1173,11 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1135,7 +1187,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>3</v>
       </c>
@@ -1145,11 +1197,11 @@
       <c r="C75" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1159,11 +1211,11 @@
       <c r="C76" s="10">
         <v>-50</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>5</v>
       </c>
@@ -1172,11 +1224,11 @@
         <v>-150</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="16">
+      <c r="D77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -1185,11 +1237,11 @@
         <v>-200</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="16">
+      <c r="D78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7</v>
       </c>
@@ -1198,11 +1250,11 @@
         <v>-250</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="16">
+      <c r="D79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1211,30 +1263,38 @@
         <v>-300</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="16">
+      <c r="D80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="17"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B82" s="16">
+        <f>NPV(C71,B73:B80)+B72</f>
+        <v>-791.26127272515441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3.7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1305,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -1253,7 +1313,7 @@
         <v>-35000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -1261,7 +1321,7 @@
         <v>-7000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1269,7 +1329,7 @@
         <v>-7000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>-7000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -1285,7 +1345,7 @@
         <v>-7000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5</v>
       </c>
@@ -1296,7 +1356,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6</v>
       </c>
@@ -1305,7 +1365,7 @@
         <v>-7840.0000000000009</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7</v>
       </c>
@@ -1314,7 +1374,7 @@
         <v>-8780.8000000000011</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -1322,8 +1382,9 @@
         <f t="shared" si="3"/>
         <v>-9834.4960000000028</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9</v>
       </c>
@@ -1332,7 +1393,7 @@
         <v>-11014.635520000003</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10</v>
       </c>
@@ -1341,7 +1402,7 @@
         <v>-12336.391782400005</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11</v>
       </c>
@@ -1350,7 +1411,7 @@
         <v>-13816.758796288008</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>12</v>
       </c>
@@ -1359,7 +1420,7 @@
         <v>-15474.76985184257</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13</v>
       </c>
@@ -1368,7 +1429,7 @@
         <v>-17331.74223406368</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -1377,10 +1438,10 @@
         <v>-83229.946870486106</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B104" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107" s="5" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1449,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
@@ -1396,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -1405,7 +1466,7 @@
       </c>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -1414,7 +1475,7 @@
       </c>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -1423,7 +1484,7 @@
       </c>
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
